--- a/biology/Zoologie/Fromia/Fromia.xlsx
+++ b/biology/Zoologie/Fromia/Fromia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fromia est un genre d'étoiles de mer tropicales de la famille des Goniasteridae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des étoiles typiques des récifs de coraux de l'Indo-Pacifique tropical. Elles sont d'allure classique, relativement aplaties, avec cinq bras (exceptionnellement plus ou moins) de longueur moyenne et s'affinant vers la pointe, rayonnant autour d'un disque central[1]. Leur corps est légèrement rigide, et leur tégument souvent rugueux et poreux ; comme souvent dans cette famille, les plaques marginales sont anguleuses et souvent surdimensionnées. Elles sont pour la plupart de couleur rouge (certaines orange, jaunes, brunes...), avec parfois des plaques plus claires pouvant former des motifs plus ou moins réguliers. Sur la face inférieure, ces bras présentent un sillon ambulacraire protégé par deux rangées (parfois une seule) de petites épines, et abritant les podia. 
-Ce genre se distingue en particulier par ses pores respiratoires isolés (très visibles chez F. milleporella)[2].
-Plusieurs de ces espèces (comme Fromia monilis ou Fromia nodosa) ont une variabilité d'aspect très importante, et les frontières visuelles entre les espèces sont parfois extrêmement ténues[3]. Ainsi, la détermination exacte à partir de photographies est parfois impossible, d'autant plus que d'autres genres du groupe des Ferdininae comme Paraferdina peuvent arborer exactement le même aspect[3]. 
-Une vaste révision de 2017 a largement remanié ce genre[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des étoiles typiques des récifs de coraux de l'Indo-Pacifique tropical. Elles sont d'allure classique, relativement aplaties, avec cinq bras (exceptionnellement plus ou moins) de longueur moyenne et s'affinant vers la pointe, rayonnant autour d'un disque central. Leur corps est légèrement rigide, et leur tégument souvent rugueux et poreux ; comme souvent dans cette famille, les plaques marginales sont anguleuses et souvent surdimensionnées. Elles sont pour la plupart de couleur rouge (certaines orange, jaunes, brunes...), avec parfois des plaques plus claires pouvant former des motifs plus ou moins réguliers. Sur la face inférieure, ces bras présentent un sillon ambulacraire protégé par deux rangées (parfois une seule) de petites épines, et abritant les podia. 
+Ce genre se distingue en particulier par ses pores respiratoires isolés (très visibles chez F. milleporella).
+Plusieurs de ces espèces (comme Fromia monilis ou Fromia nodosa) ont une variabilité d'aspect très importante, et les frontières visuelles entre les espèces sont parfois extrêmement ténues. Ainsi, la détermination exacte à partir de photographies est parfois impossible, d'autant plus que d'autres genres du groupe des Ferdininae comme Paraferdina peuvent arborer exactement le même aspect. 
+Une vaste révision de 2017 a largement remanié ce genre. 
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (18 mai 2014)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (18 mai 2014) :
 Fromia armata Koehler, 1910 -- Mer d'Andaman
 Fromia balanse Perrier, 1875 -- Océan Pacifique tropical insulaire
 Fromia elegans H.L. Clark, 1921 -- Océan Pacifique occidental tropical (Nouvelle-Calédonie, Fidji…)
